--- a/data/Mice_table_Example_1.xlsx
+++ b/data/Mice_table_Example_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\Documents\GitHub\Mice_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CA2B9F-D52F-4938-B9E5-754D67F900ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631D0B14-8375-45E2-B0AA-03F5A16D70B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D38C1D22-3EA8-4F40-A472-ED4C86E2FE4E}"/>
   </bookViews>
@@ -66,9 +66,6 @@
     <t>Male</t>
   </si>
   <si>
-    <t>Wildtype</t>
-  </si>
-  <si>
     <t>Alive</t>
   </si>
   <si>
@@ -241,6 +238,9 @@
   </si>
   <si>
     <t>Dead</t>
+  </si>
+  <si>
+    <t>Null</t>
   </si>
 </sst>
 </file>
@@ -630,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7ABFCBC-29C7-416F-852A-D3F8B3F972D2}">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -653,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>1</v>
@@ -685,7 +685,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E2" s="3">
         <v>44322</v>
@@ -694,7 +694,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2" s="7">
         <v>11</v>
@@ -702,16 +702,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="3">
         <v>44317</v>
@@ -720,7 +720,7 @@
         <v>3</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" s="7">
         <v>16</v>
@@ -728,16 +728,16 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E4" s="3">
         <v>44322</v>
@@ -746,7 +746,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -754,16 +754,16 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E5" s="3">
         <v>44326</v>
@@ -772,7 +772,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -780,16 +780,16 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="3">
         <v>44325</v>
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
@@ -806,16 +806,16 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E7" s="3">
         <v>44326</v>
@@ -824,7 +824,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -832,7 +832,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>8</v>
@@ -841,7 +841,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E8" s="3">
         <v>44328</v>
@@ -850,7 +850,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -858,16 +858,16 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" s="3">
         <v>44323</v>
@@ -876,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H9" s="7">
         <v>10</v>
@@ -884,16 +884,16 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E10" s="3">
         <v>44320</v>
@@ -902,7 +902,7 @@
         <v>4</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>8</v>
@@ -919,7 +919,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E11" s="3">
         <v>44288</v>
@@ -928,7 +928,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H11" s="7">
         <v>45</v>
@@ -936,16 +936,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" s="3">
         <v>44288</v>
@@ -954,7 +954,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H12" s="7">
         <v>45</v>
@@ -962,16 +962,16 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E13" s="3">
         <v>44289</v>
@@ -980,7 +980,7 @@
         <v>3</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H13" s="7">
         <v>44</v>
@@ -988,16 +988,16 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E14" s="3">
         <v>44290</v>
@@ -1006,7 +1006,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H14" s="7">
         <v>43</v>
@@ -1014,16 +1014,16 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15" s="3">
         <v>44291</v>
@@ -1032,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H15" s="7">
         <v>42</v>
@@ -1040,16 +1040,16 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E16" s="3">
         <v>44292</v>
@@ -1058,7 +1058,7 @@
         <v>2</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H16" s="7">
         <v>41</v>
@@ -1066,7 +1066,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>8</v>
@@ -1075,7 +1075,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E17" s="3">
         <v>44293</v>
@@ -1084,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H17" s="7">
         <v>40</v>
@@ -1092,16 +1092,16 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E18" s="3">
         <v>44294</v>
@@ -1110,7 +1110,7 @@
         <v>4</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H18" s="7">
         <v>39</v>
@@ -1118,16 +1118,16 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E19" s="3">
         <v>44295</v>
@@ -1136,7 +1136,7 @@
         <v>3</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H19" s="7">
         <v>38</v>
@@ -1144,16 +1144,16 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E20" s="3">
         <v>44296</v>
@@ -1162,7 +1162,7 @@
         <v>3</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H20" s="7">
         <v>37</v>
@@ -1170,16 +1170,16 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E21" s="3">
         <v>44297</v>
@@ -1188,7 +1188,7 @@
         <v>3</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H21" s="7">
         <v>36</v>
@@ -1196,16 +1196,16 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E22" s="3">
         <v>44298</v>
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H22" s="7">
         <v>35</v>
@@ -1222,16 +1222,16 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E23" s="3">
         <v>44299</v>
@@ -1240,7 +1240,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H23" s="7">
         <v>34</v>
@@ -1248,16 +1248,16 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E24" s="3">
         <v>44300</v>
@@ -1266,7 +1266,7 @@
         <v>2</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H24" s="7">
         <v>33</v>
@@ -1274,16 +1274,16 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E25" s="3">
         <v>44301</v>
@@ -1292,7 +1292,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H25" s="7">
         <v>32</v>
@@ -1300,7 +1300,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>8</v>
@@ -1309,7 +1309,7 @@
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E26" s="3">
         <v>44302</v>
@@ -1318,7 +1318,7 @@
         <v>4</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H26" s="7">
         <v>31</v>
@@ -1326,16 +1326,16 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E27" s="3">
         <v>44303</v>
@@ -1344,7 +1344,7 @@
         <v>3</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H27" s="7">
         <v>30</v>
@@ -1352,16 +1352,16 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E28" s="3">
         <v>44304</v>
@@ -1370,7 +1370,7 @@
         <v>2</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H28" s="7">
         <v>29</v>
@@ -1378,7 +1378,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>8</v>
@@ -1387,7 +1387,7 @@
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E29" s="3">
         <v>44305</v>
@@ -1396,7 +1396,7 @@
         <v>3</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H29" s="7">
         <v>28</v>
@@ -1404,16 +1404,16 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E30" s="3">
         <v>44306</v>
@@ -1422,7 +1422,7 @@
         <v>3</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H30" s="7">
         <v>27</v>
@@ -1430,16 +1430,16 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E31" s="3">
         <v>44307</v>
@@ -1448,7 +1448,7 @@
         <v>3</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H31" s="7">
         <v>26</v>
@@ -1456,16 +1456,16 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E32" s="3">
         <v>44308</v>
@@ -1474,7 +1474,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H32" s="7">
         <v>25</v>
@@ -1482,16 +1482,16 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E33" s="3">
         <v>44309</v>
@@ -1500,7 +1500,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H33" s="7">
         <v>24</v>
@@ -1508,16 +1508,16 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E34" s="3">
         <v>44310</v>
@@ -1526,7 +1526,7 @@
         <v>2</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H34" s="7">
         <v>23</v>
@@ -1534,7 +1534,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>8</v>
@@ -1543,7 +1543,7 @@
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E35" s="3">
         <v>44311</v>
@@ -1552,7 +1552,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H35" s="7">
         <v>22</v>
@@ -1560,16 +1560,16 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E36" s="3">
         <v>44312</v>
@@ -1578,7 +1578,7 @@
         <v>3</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H36" s="7">
         <v>21</v>
@@ -1586,16 +1586,16 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E37" s="3">
         <v>44313</v>
@@ -1604,7 +1604,7 @@
         <v>3</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H37" s="7">
         <v>20</v>
@@ -1612,7 +1612,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>8</v>
@@ -1621,7 +1621,7 @@
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E38" s="3">
         <v>44314</v>
@@ -1630,7 +1630,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H38" s="7">
         <v>19</v>
@@ -1638,16 +1638,16 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E39" s="3">
         <v>44315</v>
@@ -1656,7 +1656,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H39" s="7">
         <v>18</v>
@@ -1664,16 +1664,16 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E40" s="3">
         <v>44316</v>
@@ -1682,7 +1682,7 @@
         <v>2</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H40" s="7">
         <v>17</v>
@@ -1690,16 +1690,16 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E41" s="3">
         <v>44317</v>
@@ -1708,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H41" s="7">
         <v>16</v>
@@ -1716,16 +1716,16 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E42" s="3">
         <v>44318</v>
@@ -1734,7 +1734,7 @@
         <v>4</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H42" s="7">
         <v>15</v>
@@ -1742,16 +1742,16 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E43" s="3">
         <v>44319</v>
@@ -1760,7 +1760,7 @@
         <v>4</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H43" s="7">
         <v>14</v>
@@ -1768,16 +1768,16 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E44" s="3">
         <v>44320</v>
@@ -1786,7 +1786,7 @@
         <v>2</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H44" s="7">
         <v>13</v>
@@ -1794,7 +1794,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>8</v>
@@ -1803,7 +1803,7 @@
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E45" s="3">
         <v>44321</v>
@@ -1812,7 +1812,7 @@
         <v>2</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H45" s="7">
         <v>12</v>
@@ -1820,16 +1820,16 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E46" s="3">
         <v>44322</v>
@@ -1838,7 +1838,7 @@
         <v>3</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H46" s="7">
         <v>11</v>
@@ -1846,16 +1846,16 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E47" s="3">
         <v>44323</v>
@@ -1864,7 +1864,7 @@
         <v>1</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H47" s="7">
         <v>10</v>
@@ -1872,16 +1872,16 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E48" s="3">
         <v>44324</v>
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H48" s="7">
         <v>9</v>
@@ -1898,16 +1898,16 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E49" s="3">
         <v>44325</v>
@@ -1916,7 +1916,7 @@
         <v>2</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H49" s="7">
         <v>8</v>
@@ -1924,16 +1924,16 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E50" s="3">
         <v>44326</v>
@@ -1942,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H50" s="7">
         <v>7</v>
@@ -1950,16 +1950,16 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E51" s="3">
         <v>44327</v>
@@ -1968,7 +1968,7 @@
         <v>4</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H51" s="7">
         <v>6</v>
@@ -1976,16 +1976,16 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="E52" s="3">
         <v>44328</v>
@@ -1994,7 +1994,7 @@
         <v>3</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H52" s="7">
         <v>5</v>
